--- a/xbdyhh/evidence.xlsx
+++ b/xbdyhh/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panxinyang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84040FF-46E7-7B44-8EDE-D6B67B33A056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A5B779-696B-E44F-B667-8859C262AD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="24760" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="1560" windowWidth="24760" windowHeight="15880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="48">
   <si>
     <t>TxHash</t>
   </si>
@@ -150,6 +150,65 @@
   </si>
   <si>
     <t>panxinyang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xbdyhh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>190E3A92BDC45DC18E32AC703EB33C7ED9895F932787EDC74E9EBEAAE9BBB839</t>
+  </si>
+  <si>
+    <t>xbdyhh1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B995B0B5367419742FA3836A01C58E06E1533176791E0ABCFEF426F18DEB4A70</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc class on dest chain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01D2CEC93B20A73C9E56485BE901839C64DEC8B4537880626AEE04E5AB164BC9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stars14gpkwcn7d7qrzwgv0jm7z43gx35fcsnc6jfj8jtpnc7k6nd0tz6s3w85lu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3F2E29BA8EB6DA31DC86E65131E322B318037B3EBEFD70506053145EFF494BFB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3507BFACEBCB03107DE97C14259F64CE9A07A768AAD9CB5C93EE139EFFF87F3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uptick</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>35730C2B80E28CBE30CDC67BE1BA4DA944DAF92263731BB275D3232A520A6822</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/75B2D05CB9D26C5B846330BB7AA610EF27F36D8230FE5EC68FD0049D561F2F37</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -559,8 +618,8 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1071,9 +1130,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1094,6 +1155,14 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1341,9 +1410,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1373,6 +1444,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1384,9 +1466,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1414,7 +1498,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1423,6 +1507,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1434,9 +1532,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1473,6 +1573,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1484,9 +1598,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1523,6 +1639,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1534,9 +1664,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1574,6 +1706,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
